--- a/extinction timeline.xlsx
+++ b/extinction timeline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\School Work\Information Science MPS\Visual Analytics for Web\project1\INFO5100Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1146,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1165,42 +1165,46 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>COUNTA(B2:B254)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1232,17 +1236,17 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
